--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H2">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>23.58003197872903</v>
+        <v>123.392882661973</v>
       </c>
       <c r="R2">
-        <v>23.58003197872903</v>
+        <v>1110.535943957757</v>
       </c>
       <c r="S2">
-        <v>0.0002347278374571628</v>
+        <v>0.001116171450700295</v>
       </c>
       <c r="T2">
-        <v>0.0002347278374571628</v>
+        <v>0.001116171450700295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H3">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>358.1413867535285</v>
+        <v>880.6904840331109</v>
       </c>
       <c r="R3">
-        <v>358.1413867535285</v>
+        <v>7926.214356297999</v>
       </c>
       <c r="S3">
-        <v>0.003565124648363446</v>
+        <v>0.007966436588356987</v>
       </c>
       <c r="T3">
-        <v>0.003565124648363446</v>
+        <v>0.007966436588356988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H4">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>318.6278889415361</v>
+        <v>861.230954401554</v>
       </c>
       <c r="R4">
-        <v>318.6278889415361</v>
+        <v>7751.078589613986</v>
       </c>
       <c r="S4">
-        <v>0.00317178684881576</v>
+        <v>0.007790412080701214</v>
       </c>
       <c r="T4">
-        <v>0.00317178684881576</v>
+        <v>0.007790412080701215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H5">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>398.0671241289053</v>
+        <v>984.115582662695</v>
       </c>
       <c r="R5">
-        <v>398.0671241289053</v>
+        <v>8857.040243964255</v>
       </c>
       <c r="S5">
-        <v>0.003962566093797394</v>
+        <v>0.008901986029182069</v>
       </c>
       <c r="T5">
-        <v>0.003962566093797394</v>
+        <v>0.008901986029182071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H6">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>152.263708144499</v>
+        <v>373.865244369349</v>
       </c>
       <c r="R6">
-        <v>152.263708144499</v>
+        <v>3364.787199324141</v>
       </c>
       <c r="S6">
-        <v>0.001515711724573041</v>
+        <v>0.003381862091003394</v>
       </c>
       <c r="T6">
-        <v>0.001515711724573041</v>
+        <v>0.003381862091003394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H7">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>96.91519974397121</v>
+        <v>251.215677188396</v>
       </c>
       <c r="R7">
-        <v>96.91519974397121</v>
+        <v>2260.941094695564</v>
       </c>
       <c r="S7">
-        <v>0.0009647440373767255</v>
+        <v>0.002272414427776733</v>
       </c>
       <c r="T7">
-        <v>0.0009647440373767255</v>
+        <v>0.002272414427776733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H8">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>1629.401716435714</v>
+        <v>3538.606370866379</v>
       </c>
       <c r="R8">
-        <v>1629.401716435714</v>
+        <v>31847.45733779741</v>
       </c>
       <c r="S8">
-        <v>0.01621990765716338</v>
+        <v>0.03200906990111546</v>
       </c>
       <c r="T8">
-        <v>0.01621990765716338</v>
+        <v>0.03200906990111546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H9">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>24747.89647568239</v>
+        <v>25256.05116219052</v>
       </c>
       <c r="R9">
-        <v>24747.89647568239</v>
+        <v>227304.4604597147</v>
       </c>
       <c r="S9">
-        <v>0.2463533648550962</v>
+        <v>0.2284579357943035</v>
       </c>
       <c r="T9">
-        <v>0.2463533648550962</v>
+        <v>0.2284579357943036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H10">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>22017.47773768755</v>
+        <v>24697.99940067258</v>
       </c>
       <c r="R10">
-        <v>22017.47773768755</v>
+        <v>222281.9946060532</v>
       </c>
       <c r="S10">
-        <v>0.2191733641536472</v>
+        <v>0.2234099830211628</v>
       </c>
       <c r="T10">
-        <v>0.2191733641536472</v>
+        <v>0.2234099830211628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H11">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>27506.80134349957</v>
+        <v>28222.03027721542</v>
       </c>
       <c r="R11">
-        <v>27506.80134349957</v>
+        <v>253998.2724949387</v>
       </c>
       <c r="S11">
-        <v>0.2738169312301098</v>
+        <v>0.2552872077923744</v>
       </c>
       <c r="T11">
-        <v>0.2738169312301098</v>
+        <v>0.2552872077923744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H12">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>10521.56110836987</v>
+        <v>10721.54168887572</v>
       </c>
       <c r="R12">
-        <v>10521.56110836987</v>
+        <v>96493.87519988151</v>
       </c>
       <c r="S12">
-        <v>0.1047370626074175</v>
+        <v>0.0969835413716621</v>
       </c>
       <c r="T12">
-        <v>0.1047370626074175</v>
+        <v>0.0969835413716621</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H13">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>6696.928696024964</v>
+        <v>7204.251789753558</v>
       </c>
       <c r="R13">
-        <v>6696.928696024964</v>
+        <v>64838.26610778202</v>
       </c>
       <c r="S13">
-        <v>0.06666469289951683</v>
+        <v>0.06516729326607701</v>
       </c>
       <c r="T13">
-        <v>0.06666469289951683</v>
+        <v>0.06516729326607701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H14">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>0.6779960261298411</v>
+        <v>2.119877161821111</v>
       </c>
       <c r="R14">
-        <v>0.6779960261298411</v>
+        <v>19.07889445639</v>
       </c>
       <c r="S14">
-        <v>6.749123205666899E-06</v>
+        <v>1.917571188849037E-05</v>
       </c>
       <c r="T14">
-        <v>6.749123205666899E-06</v>
+        <v>1.917571188849038E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H15">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>10.29762967372408</v>
+        <v>15.13017285485889</v>
       </c>
       <c r="R15">
-        <v>10.29762967372408</v>
+        <v>136.17155569373</v>
       </c>
       <c r="S15">
-        <v>0.0001025079332559178</v>
+        <v>0.0001368625695455816</v>
       </c>
       <c r="T15">
-        <v>0.0001025079332559178</v>
+        <v>0.0001368625695455816</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H16">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>9.161499132459859</v>
+        <v>14.79586011691334</v>
       </c>
       <c r="R16">
-        <v>9.161499132459859</v>
+        <v>133.16274105222</v>
       </c>
       <c r="S16">
-        <v>9.119830207049137E-05</v>
+        <v>0.0001338384864246572</v>
       </c>
       <c r="T16">
-        <v>9.119830207049137E-05</v>
+        <v>0.0001338384864246572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H17">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>11.44561332808163</v>
+        <v>16.90700551987223</v>
       </c>
       <c r="R17">
-        <v>11.44561332808163</v>
+        <v>152.16304967885</v>
       </c>
       <c r="S17">
-        <v>0.000113935556461289</v>
+        <v>0.0001529352136930774</v>
       </c>
       <c r="T17">
-        <v>0.000113935556461289</v>
+        <v>0.0001529352136930775</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H18">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>4.378034310508538</v>
+        <v>6.422966836007779</v>
       </c>
       <c r="R18">
-        <v>4.378034310508538</v>
+        <v>57.80670152407001</v>
       </c>
       <c r="S18">
-        <v>4.358121850495983E-05</v>
+        <v>5.810004642476883E-05</v>
       </c>
       <c r="T18">
-        <v>4.358121850495983E-05</v>
+        <v>5.810004642476883E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H19">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>2.786600135117117</v>
+        <v>4.315859758475556</v>
       </c>
       <c r="R19">
-        <v>2.786600135117117</v>
+        <v>38.84273782628</v>
       </c>
       <c r="S19">
-        <v>2.773925939387698E-05</v>
+        <v>3.903984852054399E-05</v>
       </c>
       <c r="T19">
-        <v>2.773925939387698E-05</v>
+        <v>3.903984852054399E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H20">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>1.764245245008344</v>
+        <v>3.843652097257</v>
       </c>
       <c r="R20">
-        <v>1.764245245008344</v>
+        <v>34.592868875313</v>
       </c>
       <c r="S20">
-        <v>1.756220990193975E-05</v>
+        <v>3.476841325715064E-05</v>
       </c>
       <c r="T20">
-        <v>1.756220990193975E-05</v>
+        <v>3.476841325715065E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H21">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>26.79594494149044</v>
+        <v>27.433250224499</v>
       </c>
       <c r="R21">
-        <v>26.79594494149044</v>
+        <v>246.899252020491</v>
       </c>
       <c r="S21">
-        <v>0.0002667406988426091</v>
+        <v>0.000248152162749819</v>
       </c>
       <c r="T21">
-        <v>0.0002667406988426091</v>
+        <v>0.000248152162749819</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H22">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>23.8395663966547</v>
+        <v>26.827091584986</v>
       </c>
       <c r="R22">
-        <v>23.8395663966547</v>
+        <v>241.443824264874</v>
       </c>
       <c r="S22">
-        <v>0.0002373113773234509</v>
+        <v>0.0002426690509736464</v>
       </c>
       <c r="T22">
-        <v>0.0002373113773234509</v>
+        <v>0.0002426690509736464</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H23">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>29.78316702759709</v>
+        <v>30.654911706755</v>
       </c>
       <c r="R23">
-        <v>29.78316702759709</v>
+        <v>275.894205360795</v>
       </c>
       <c r="S23">
-        <v>0.0002964770529284988</v>
+        <v>0.0002772942533853522</v>
       </c>
       <c r="T23">
-        <v>0.0002964770529284988</v>
+        <v>0.0002772942533853523</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H24">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>11.39228832783584</v>
+        <v>11.645792687641</v>
       </c>
       <c r="R24">
-        <v>11.39228832783584</v>
+        <v>104.812134188769</v>
       </c>
       <c r="S24">
-        <v>0.0001134047318211279</v>
+        <v>0.0001053440120556083</v>
       </c>
       <c r="T24">
-        <v>0.0001134047318211279</v>
+        <v>0.0001053440120556083</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H25">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>7.251142851357197</v>
+        <v>7.825294649563999</v>
       </c>
       <c r="R25">
-        <v>7.251142851357197</v>
+        <v>70.427651846076</v>
       </c>
       <c r="S25">
-        <v>7.21816273246539E-05</v>
+        <v>7.078504280581855E-05</v>
       </c>
       <c r="T25">
-        <v>7.21816273246539E-05</v>
+        <v>7.078504280581855E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H26">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>102.3566686610255</v>
+        <v>1.291788581654667</v>
       </c>
       <c r="R26">
-        <v>102.3566686610255</v>
+        <v>11.626097234892</v>
       </c>
       <c r="S26">
-        <v>0.001018911234123647</v>
+        <v>1.168509482944363E-05</v>
       </c>
       <c r="T26">
-        <v>0.001018911234123647</v>
+        <v>1.168509482944363E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H27">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>1554.627207070776</v>
+        <v>9.219866549049334</v>
       </c>
       <c r="R27">
-        <v>1554.627207070776</v>
+        <v>82.978798941444</v>
       </c>
       <c r="S27">
-        <v>0.01547556350631638</v>
+        <v>8.339988173796803E-05</v>
       </c>
       <c r="T27">
-        <v>0.01547556350631638</v>
+        <v>8.339988173796805E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H28">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>1383.106235138733</v>
+        <v>9.016146548024</v>
       </c>
       <c r="R28">
-        <v>1383.106235138733</v>
+        <v>81.145318932216</v>
       </c>
       <c r="S28">
-        <v>0.01376815501524743</v>
+        <v>8.155709758238571E-05</v>
       </c>
       <c r="T28">
-        <v>0.01376815501524743</v>
+        <v>8.155709758238573E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H29">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>1727.937636643774</v>
+        <v>10.30261426175333</v>
       </c>
       <c r="R29">
-        <v>1727.937636643774</v>
+        <v>92.72352835578</v>
       </c>
       <c r="S29">
-        <v>0.01720078518452016</v>
+        <v>9.31940615898315E-05</v>
       </c>
       <c r="T29">
-        <v>0.01720078518452016</v>
+        <v>9.319406158983153E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H30">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>660.9493124396355</v>
+        <v>3.913960378710667</v>
       </c>
       <c r="R30">
-        <v>660.9493124396355</v>
+        <v>35.225643408396</v>
       </c>
       <c r="S30">
-        <v>0.006579431398469059</v>
+        <v>3.540439885707673E-05</v>
       </c>
       <c r="T30">
-        <v>0.006579431398469059</v>
+        <v>3.540439885707673E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.129164</v>
+      </c>
+      <c r="H31">
+        <v>0.387492</v>
+      </c>
+      <c r="I31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="J31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N31">
+        <v>61.084052</v>
+      </c>
+      <c r="O31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P31">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q31">
+        <v>2.629953497509333</v>
+      </c>
+      <c r="R31">
+        <v>23.669581477584</v>
+      </c>
+      <c r="S31">
+        <v>2.378969473167156E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.378969473167156E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.676422</v>
+      </c>
+      <c r="H32">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N32">
+        <v>30.003451</v>
+      </c>
+      <c r="O32">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P32">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q32">
+        <v>256.7937564441074</v>
+      </c>
+      <c r="R32">
+        <v>2311.143807996966</v>
+      </c>
+      <c r="S32">
+        <v>0.002322871898910012</v>
+      </c>
+      <c r="T32">
+        <v>0.002322871898910012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.676422</v>
+      </c>
+      <c r="H33">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N33">
+        <v>214.143257</v>
+      </c>
+      <c r="O33">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P33">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q33">
+        <v>1832.810878395485</v>
+      </c>
+      <c r="R33">
+        <v>16495.29790555936</v>
+      </c>
+      <c r="S33">
+        <v>0.01657900466270912</v>
+      </c>
+      <c r="T33">
+        <v>0.01657900466270913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.676422</v>
+      </c>
+      <c r="H34">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>69.803866</v>
+      </c>
+      <c r="N34">
+        <v>209.411598</v>
+      </c>
+      <c r="O34">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P34">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q34">
+        <v>1792.313520647452</v>
+      </c>
+      <c r="R34">
+        <v>16130.82168582707</v>
+      </c>
+      <c r="S34">
+        <v>0.01621267887817438</v>
+      </c>
+      <c r="T34">
+        <v>0.01621267887817438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.676422</v>
+      </c>
+      <c r="H35">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N35">
+        <v>239.291465</v>
+      </c>
+      <c r="O35">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P35">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q35">
+        <v>2048.049545446077</v>
+      </c>
+      <c r="R35">
+        <v>18432.44590901469</v>
+      </c>
+      <c r="S35">
+        <v>0.01852598288435249</v>
+      </c>
+      <c r="T35">
+        <v>0.01852598288435249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="H31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="I31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="J31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="N31">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="O31">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="P31">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="Q31">
-        <v>420.6914137079745</v>
-      </c>
-      <c r="R31">
-        <v>420.6914137079745</v>
-      </c>
-      <c r="S31">
-        <v>0.004187779976954553</v>
-      </c>
-      <c r="T31">
-        <v>0.004187779976954553</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.676422</v>
+      </c>
+      <c r="H36">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N36">
+        <v>90.906763</v>
+      </c>
+      <c r="O36">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P36">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q36">
+        <v>778.0534698139954</v>
+      </c>
+      <c r="R36">
+        <v>7002.481228325959</v>
+      </c>
+      <c r="S36">
+        <v>0.007038015900023381</v>
+      </c>
+      <c r="T36">
+        <v>0.007038015900023381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.676422</v>
+      </c>
+      <c r="H37">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N37">
+        <v>61.084052</v>
+      </c>
+      <c r="O37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P37">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q37">
+        <v>522.8066322073147</v>
+      </c>
+      <c r="R37">
+        <v>4705.259689865832</v>
+      </c>
+      <c r="S37">
+        <v>0.004729136920361525</v>
+      </c>
+      <c r="T37">
+        <v>0.004729136920361525</v>
       </c>
     </row>
   </sheetData>
